--- a/data/pca/factorExposure/factorExposure_2009-10-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-10-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01200076666898369</v>
+        <v>-0.01685606593699472</v>
       </c>
       <c r="C2">
-        <v>-0.00220086112693036</v>
+        <v>-0.0008915945012492314</v>
       </c>
       <c r="D2">
-        <v>-0.006149104197060808</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008839267654442285</v>
+      </c>
+      <c r="E2">
+        <v>-0.001677463925940098</v>
+      </c>
+      <c r="F2">
+        <v>0.0120909736794008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1075811474317097</v>
+        <v>-0.09350965519914127</v>
       </c>
       <c r="C4">
-        <v>-0.0164018403216686</v>
+        <v>-0.01435379171478801</v>
       </c>
       <c r="D4">
-        <v>-0.06180711913297375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08386975156001221</v>
+      </c>
+      <c r="E4">
+        <v>-0.02851343960962289</v>
+      </c>
+      <c r="F4">
+        <v>-0.03192202170052716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1427547398750553</v>
+        <v>-0.1586937825347599</v>
       </c>
       <c r="C6">
-        <v>-0.02234279565557727</v>
+        <v>-0.02615425573232312</v>
       </c>
       <c r="D6">
-        <v>0.02197402353160677</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.022681119886904</v>
+      </c>
+      <c r="E6">
+        <v>-0.01034664124784114</v>
+      </c>
+      <c r="F6">
+        <v>-0.04408220680776617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07159003141076695</v>
+        <v>-0.06349942717857905</v>
       </c>
       <c r="C7">
-        <v>-0.000478591484767076</v>
+        <v>0.001735023115173858</v>
       </c>
       <c r="D7">
-        <v>-0.03567630810716774</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0529543010203462</v>
+      </c>
+      <c r="E7">
+        <v>-0.01195068440218261</v>
+      </c>
+      <c r="F7">
+        <v>-0.0472601417133128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06174338024459531</v>
+        <v>-0.05714283587244601</v>
       </c>
       <c r="C8">
-        <v>0.01182795637701476</v>
+        <v>0.01351065981570254</v>
       </c>
       <c r="D8">
-        <v>-0.01283778519330218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03260913737724482</v>
+      </c>
+      <c r="E8">
+        <v>-0.01784939310805704</v>
+      </c>
+      <c r="F8">
+        <v>0.02752514453144675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08216929140839452</v>
+        <v>-0.07088300663610111</v>
       </c>
       <c r="C9">
-        <v>-0.01419754254270968</v>
+        <v>-0.01016812143825615</v>
       </c>
       <c r="D9">
-        <v>-0.06576885515925028</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08673811930969964</v>
+      </c>
+      <c r="E9">
+        <v>-0.02354505245955291</v>
+      </c>
+      <c r="F9">
+        <v>-0.04762582981572605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.07616037387307117</v>
+        <v>-0.09266122130010206</v>
       </c>
       <c r="C10">
-        <v>-0.00948762268139677</v>
+        <v>-0.0211360365763813</v>
       </c>
       <c r="D10">
-        <v>0.1590227460249775</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1654686985326303</v>
+      </c>
+      <c r="E10">
+        <v>0.03293517957856345</v>
+      </c>
+      <c r="F10">
+        <v>0.05504429709698599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09636306160179385</v>
+        <v>-0.08793943129760336</v>
       </c>
       <c r="C11">
-        <v>-0.01393506624746475</v>
+        <v>-0.01007140071349651</v>
       </c>
       <c r="D11">
-        <v>-0.0959297923313415</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.117425255060754</v>
+      </c>
+      <c r="E11">
+        <v>-0.04643294245634107</v>
+      </c>
+      <c r="F11">
+        <v>-0.02306928374248231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1029819457148855</v>
+        <v>-0.09191925964094956</v>
       </c>
       <c r="C12">
-        <v>-0.01251205207116</v>
+        <v>-0.007466790492346271</v>
       </c>
       <c r="D12">
-        <v>-0.09626172238748607</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1322079948832795</v>
+      </c>
+      <c r="E12">
+        <v>-0.04670032448763619</v>
+      </c>
+      <c r="F12">
+        <v>-0.0288582349140676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04207668065874821</v>
+        <v>-0.04154636237039617</v>
       </c>
       <c r="C13">
-        <v>-0.004853302271586366</v>
+        <v>-0.002328965920422836</v>
       </c>
       <c r="D13">
-        <v>-0.03764083588468731</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05377146666962963</v>
+      </c>
+      <c r="E13">
+        <v>0.004626674746884103</v>
+      </c>
+      <c r="F13">
+        <v>-0.001033210917642307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02032341624117387</v>
+        <v>-0.02409582852992311</v>
       </c>
       <c r="C14">
-        <v>-0.0153897667929483</v>
+        <v>-0.01379017687504643</v>
       </c>
       <c r="D14">
-        <v>-0.02547430764764524</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03279791976042166</v>
+      </c>
+      <c r="E14">
+        <v>-0.01884749407934292</v>
+      </c>
+      <c r="F14">
+        <v>-0.01297339507731676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03722886030064523</v>
+        <v>-0.03267449626053032</v>
       </c>
       <c r="C15">
-        <v>-0.006488469903963846</v>
+        <v>-0.00452881867043091</v>
       </c>
       <c r="D15">
-        <v>-0.02229476064081483</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04469304215624287</v>
+      </c>
+      <c r="E15">
+        <v>-0.005847584282639044</v>
+      </c>
+      <c r="F15">
+        <v>-0.02431057169863808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08139881902150288</v>
+        <v>-0.0742134474318478</v>
       </c>
       <c r="C16">
-        <v>-0.006075503307442964</v>
+        <v>-0.000723357750489047</v>
       </c>
       <c r="D16">
-        <v>-0.09442818556388685</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1277479658491869</v>
+      </c>
+      <c r="E16">
+        <v>-0.06120538960485948</v>
+      </c>
+      <c r="F16">
+        <v>-0.0269902578115914</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0006292048865578094</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0001795428544615346</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001146461529289695</v>
+      </c>
+      <c r="E17">
+        <v>-0.0007763834380071629</v>
+      </c>
+      <c r="F17">
+        <v>0.001114229220161905</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.002071511119510714</v>
+        <v>-0.03604130149470765</v>
       </c>
       <c r="C18">
-        <v>0.0009535180219785921</v>
+        <v>0.003064323862283212</v>
       </c>
       <c r="D18">
-        <v>-0.005042416698919982</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01615358482293811</v>
+      </c>
+      <c r="E18">
+        <v>0.009278518349243727</v>
+      </c>
+      <c r="F18">
+        <v>0.009020704016568465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06445711169749158</v>
+        <v>-0.06159524413197396</v>
       </c>
       <c r="C20">
-        <v>-0.00481370586532323</v>
+        <v>0.0001401027150948617</v>
       </c>
       <c r="D20">
-        <v>-0.03891520562848554</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07800376732182367</v>
+      </c>
+      <c r="E20">
+        <v>-0.05657813333973685</v>
+      </c>
+      <c r="F20">
+        <v>-0.02512971375712408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.0460591215277192</v>
+        <v>-0.04060906273475903</v>
       </c>
       <c r="C21">
-        <v>-0.009072996683371167</v>
+        <v>-0.006332945139748775</v>
       </c>
       <c r="D21">
-        <v>-0.01355764243610193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03794437752059222</v>
+      </c>
+      <c r="E21">
+        <v>0.001865100113091904</v>
+      </c>
+      <c r="F21">
+        <v>0.02561550633339766</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.03345167812619469</v>
+        <v>-0.04339941366005383</v>
       </c>
       <c r="C22">
-        <v>2.626151699469719e-05</v>
+        <v>-0.0004038614494356434</v>
       </c>
       <c r="D22">
-        <v>0.01989465095785368</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006723852184656419</v>
+      </c>
+      <c r="E22">
+        <v>-0.03488736300135586</v>
+      </c>
+      <c r="F22">
+        <v>0.0375183771219532</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.03340691780604806</v>
+        <v>-0.04337532238266006</v>
       </c>
       <c r="C23">
-        <v>3.34547107310249e-05</v>
+        <v>-0.0003954984664390811</v>
       </c>
       <c r="D23">
-        <v>0.01988145617387562</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006739285864310806</v>
+      </c>
+      <c r="E23">
+        <v>-0.03507001944474582</v>
+      </c>
+      <c r="F23">
+        <v>0.03748149555650242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08815816098068448</v>
+        <v>-0.07977012649408105</v>
       </c>
       <c r="C24">
-        <v>-0.005884591181767826</v>
+        <v>-0.001328743657996909</v>
       </c>
       <c r="D24">
-        <v>-0.1033348585982224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1217564050260022</v>
+      </c>
+      <c r="E24">
+        <v>-0.04919231313065398</v>
+      </c>
+      <c r="F24">
+        <v>-0.02753718386777747</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09405521871626983</v>
+        <v>-0.08531670165357629</v>
       </c>
       <c r="C25">
-        <v>-0.008236040100890614</v>
+        <v>-0.004117600567883234</v>
       </c>
       <c r="D25">
-        <v>-0.0917989613667077</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.109661236854202</v>
+      </c>
+      <c r="E25">
+        <v>-0.03256370113877446</v>
+      </c>
+      <c r="F25">
+        <v>-0.02783419147246776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05819347890379054</v>
+        <v>-0.05882080432685075</v>
       </c>
       <c r="C26">
-        <v>-0.01739640319896573</v>
+        <v>-0.01420953763716491</v>
       </c>
       <c r="D26">
-        <v>-0.01472452730483056</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04132083880202173</v>
+      </c>
+      <c r="E26">
+        <v>-0.02876829768572957</v>
+      </c>
+      <c r="F26">
+        <v>0.006545781725533403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1331217074607373</v>
+        <v>-0.142897012676858</v>
       </c>
       <c r="C28">
-        <v>-0.004366831316568527</v>
+        <v>-0.02226265995540991</v>
       </c>
       <c r="D28">
-        <v>0.2732941655708898</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2608682784613489</v>
+      </c>
+      <c r="E28">
+        <v>0.06706938600147237</v>
+      </c>
+      <c r="F28">
+        <v>-0.007995789390577461</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.0245363742824353</v>
+        <v>-0.02863852272319606</v>
       </c>
       <c r="C29">
-        <v>-0.009819174930405012</v>
+        <v>-0.008649933767118728</v>
       </c>
       <c r="D29">
-        <v>-0.01945520957222355</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03103678234949727</v>
+      </c>
+      <c r="E29">
+        <v>-0.01388304565964547</v>
+      </c>
+      <c r="F29">
+        <v>0.01336556624879774</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.07969154086693497</v>
+        <v>-0.05900495071107127</v>
       </c>
       <c r="C30">
-        <v>-0.005028375821455305</v>
+        <v>-0.002425684958809866</v>
       </c>
       <c r="D30">
-        <v>-0.06345317143708218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0896334683680395</v>
+      </c>
+      <c r="E30">
+        <v>-0.01602058766072241</v>
+      </c>
+      <c r="F30">
+        <v>-0.07813900167783094</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.04871201816013312</v>
+        <v>-0.05091273794744402</v>
       </c>
       <c r="C31">
-        <v>-0.01525295611934848</v>
+        <v>-0.01529922367534167</v>
       </c>
       <c r="D31">
-        <v>-0.02029262775947013</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02505228778902308</v>
+      </c>
+      <c r="E31">
+        <v>-0.02856702682871174</v>
+      </c>
+      <c r="F31">
+        <v>0.001277591972120698</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04893001702110848</v>
+        <v>-0.05137048474291531</v>
       </c>
       <c r="C32">
-        <v>-0.0005359790035184782</v>
+        <v>0.001953472559747311</v>
       </c>
       <c r="D32">
-        <v>-0.01587998772323352</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03572598539693641</v>
+      </c>
+      <c r="E32">
+        <v>-0.0336664643601321</v>
+      </c>
+      <c r="F32">
+        <v>-0.00355094577952523</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.1022750213438895</v>
+        <v>-0.08921462806162005</v>
       </c>
       <c r="C33">
-        <v>-0.009661950907685587</v>
+        <v>-0.006559994178002283</v>
       </c>
       <c r="D33">
-        <v>-0.06824728385616949</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1012066871675973</v>
+      </c>
+      <c r="E33">
+        <v>-0.04390589082767352</v>
+      </c>
+      <c r="F33">
+        <v>-0.03691429082702591</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.07820068309241353</v>
+        <v>-0.06774008102820143</v>
       </c>
       <c r="C34">
-        <v>-0.0129918586559285</v>
+        <v>-0.009838969193812786</v>
       </c>
       <c r="D34">
-        <v>-0.08915176442673613</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1096030843358867</v>
+      </c>
+      <c r="E34">
+        <v>-0.03481522922204825</v>
+      </c>
+      <c r="F34">
+        <v>-0.03365809398941432</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02220652658111773</v>
+        <v>-0.02498564092895003</v>
       </c>
       <c r="C35">
-        <v>-0.001912950367498152</v>
+        <v>-0.002470261946564743</v>
       </c>
       <c r="D35">
-        <v>-0.0004730009478164245</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01127365073285573</v>
+      </c>
+      <c r="E35">
+        <v>-0.01178625307842822</v>
+      </c>
+      <c r="F35">
+        <v>-0.0008506814192264566</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01888545159691024</v>
+        <v>-0.02769048907189294</v>
       </c>
       <c r="C36">
-        <v>-0.009088546809945421</v>
+        <v>-0.00677289787212084</v>
       </c>
       <c r="D36">
-        <v>-0.03069184827969856</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03995226205661968</v>
+      </c>
+      <c r="E36">
+        <v>-0.01657303129073722</v>
+      </c>
+      <c r="F36">
+        <v>-0.01558810315683982</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0007727642306714329</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0005781820825218074</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.00230881337590768</v>
+      </c>
+      <c r="E37">
+        <v>0.000909967028174598</v>
+      </c>
+      <c r="F37">
+        <v>-0.0005744389696796658</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0007104168842174209</v>
+        <v>0.0004205578395111862</v>
       </c>
       <c r="C38">
-        <v>7.452890617238553e-05</v>
+        <v>0.0001496908032013788</v>
       </c>
       <c r="D38">
-        <v>-0.001404350680315898</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0007123429792047439</v>
+      </c>
+      <c r="E38">
+        <v>0.00011231313956102</v>
+      </c>
+      <c r="F38">
+        <v>0.000103626281109702</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1263473830843017</v>
+        <v>-0.1040534625636002</v>
       </c>
       <c r="C39">
-        <v>-0.02032815754483095</v>
+        <v>-0.01520416817214282</v>
       </c>
       <c r="D39">
-        <v>-0.1417714949650125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1552386452984603</v>
+      </c>
+      <c r="E39">
+        <v>-0.06000200311521094</v>
+      </c>
+      <c r="F39">
+        <v>-0.03015023518265141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.0324844785989144</v>
+        <v>-0.04096513859151804</v>
       </c>
       <c r="C40">
-        <v>-0.008136260471270236</v>
+        <v>-0.006933287606413094</v>
       </c>
       <c r="D40">
-        <v>0.01669806071932372</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03032038354518406</v>
+      </c>
+      <c r="E40">
+        <v>-0.00206055479356646</v>
+      </c>
+      <c r="F40">
+        <v>0.01561361879011781</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02477047618763605</v>
+        <v>-0.02821969528339845</v>
       </c>
       <c r="C41">
-        <v>-0.006770406368964418</v>
+        <v>-0.006930716250475547</v>
       </c>
       <c r="D41">
-        <v>-0.0003812463533467167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.010432771930507</v>
+      </c>
+      <c r="E41">
+        <v>-0.01219037212844399</v>
+      </c>
+      <c r="F41">
+        <v>0.006049966376100347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03720445643989447</v>
+        <v>-0.04087121548745104</v>
       </c>
       <c r="C43">
-        <v>-0.008012527050364917</v>
+        <v>-0.007037438436828363</v>
       </c>
       <c r="D43">
-        <v>-0.00851014528673198</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01875653149249026</v>
+      </c>
+      <c r="E43">
+        <v>-0.0252282361011561</v>
+      </c>
+      <c r="F43">
+        <v>0.01245327595749829</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.09031962974824784</v>
+        <v>-0.07937055050131361</v>
       </c>
       <c r="C44">
-        <v>-0.02320051671125889</v>
+        <v>-0.01904412534053885</v>
       </c>
       <c r="D44">
-        <v>-0.06757866296011979</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09787657288786464</v>
+      </c>
+      <c r="E44">
+        <v>-0.06196973761816669</v>
+      </c>
+      <c r="F44">
+        <v>-0.1547831814262162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01543228598511853</v>
+        <v>-0.02356156129501679</v>
       </c>
       <c r="C46">
-        <v>-0.004191463047880238</v>
+        <v>-0.003323153940010859</v>
       </c>
       <c r="D46">
-        <v>6.612714132175458e-05</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01296488617019625</v>
+      </c>
+      <c r="E46">
+        <v>-0.02638742892614518</v>
+      </c>
+      <c r="F46">
+        <v>0.00652156632778303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05143312171233758</v>
+        <v>-0.05239803121572323</v>
       </c>
       <c r="C47">
-        <v>-0.002915768750972419</v>
+        <v>-0.003375126143533336</v>
       </c>
       <c r="D47">
-        <v>0.002453472133329026</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01357183470739488</v>
+      </c>
+      <c r="E47">
+        <v>-0.02333462618626313</v>
+      </c>
+      <c r="F47">
+        <v>0.03182094007570443</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.0469575735708198</v>
+        <v>-0.0502641953142989</v>
       </c>
       <c r="C48">
-        <v>-0.004493124342788143</v>
+        <v>-0.002046866157727483</v>
       </c>
       <c r="D48">
-        <v>-0.03756751559708005</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05042601147372309</v>
+      </c>
+      <c r="E48">
+        <v>0.004718969666804316</v>
+      </c>
+      <c r="F48">
+        <v>-0.009731454391878887</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1970467418208371</v>
+        <v>-0.2003815119055226</v>
       </c>
       <c r="C49">
-        <v>-0.01346821628495534</v>
+        <v>-0.01868311064364755</v>
       </c>
       <c r="D49">
-        <v>-0.003310710849221059</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.006185141933582708</v>
+      </c>
+      <c r="E49">
+        <v>-0.03106898063036639</v>
+      </c>
+      <c r="F49">
+        <v>-0.03812760242573016</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.05128287186083536</v>
+        <v>-0.05121517290198888</v>
       </c>
       <c r="C50">
-        <v>-0.01075128782906689</v>
+        <v>-0.01101284542257685</v>
       </c>
       <c r="D50">
-        <v>-0.01652770739829777</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02491560953288105</v>
+      </c>
+      <c r="E50">
+        <v>-0.03013978724043767</v>
+      </c>
+      <c r="F50">
+        <v>-0.009722052723537428</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1601523471576604</v>
+        <v>-0.1475615851137363</v>
       </c>
       <c r="C52">
-        <v>-0.01235853809273161</v>
+        <v>-0.01670944109789969</v>
       </c>
       <c r="D52">
-        <v>-0.05203229669020328</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04331487845913844</v>
+      </c>
+      <c r="E52">
+        <v>-0.01951700917418288</v>
+      </c>
+      <c r="F52">
+        <v>-0.0437623542066319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1716598528590196</v>
+        <v>-0.1711921983737935</v>
       </c>
       <c r="C53">
-        <v>-0.01172109034893416</v>
+        <v>-0.01929910664947773</v>
       </c>
       <c r="D53">
-        <v>-0.01861632286966591</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005980102777532361</v>
+      </c>
+      <c r="E53">
+        <v>-0.0284682425721654</v>
+      </c>
+      <c r="F53">
+        <v>-0.0743438196220688</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01974952244115392</v>
+        <v>-0.02105024658920688</v>
       </c>
       <c r="C54">
-        <v>-0.0119126356087967</v>
+        <v>-0.01131219097052321</v>
       </c>
       <c r="D54">
-        <v>-0.02260984409843539</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03442683436077178</v>
+      </c>
+      <c r="E54">
+        <v>-0.02173529078090154</v>
+      </c>
+      <c r="F54">
+        <v>0.00562438352218163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1185510538086396</v>
+        <v>-0.1142458702879512</v>
       </c>
       <c r="C55">
-        <v>-0.01141849344219295</v>
+        <v>-0.01710841900854434</v>
       </c>
       <c r="D55">
-        <v>-0.01274624323352978</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008461774275329187</v>
+      </c>
+      <c r="E55">
+        <v>-0.02386538018079894</v>
+      </c>
+      <c r="F55">
+        <v>-0.04744851447131867</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1775487876972114</v>
+        <v>-0.1769399051895488</v>
       </c>
       <c r="C56">
-        <v>-0.009949919535549058</v>
+        <v>-0.01724377681658079</v>
       </c>
       <c r="D56">
-        <v>-0.0008892036232798289</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001002632126060228</v>
+      </c>
+      <c r="E56">
+        <v>-0.03334415557006693</v>
+      </c>
+      <c r="F56">
+        <v>-0.05241841799296101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.0352562288356975</v>
+        <v>-0.04485896823436087</v>
       </c>
       <c r="C58">
-        <v>-0.006878757577522449</v>
+        <v>0.0005095386746465071</v>
       </c>
       <c r="D58">
-        <v>-0.05634116925662646</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07157968108731107</v>
+      </c>
+      <c r="E58">
+        <v>-0.0316983458464792</v>
+      </c>
+      <c r="F58">
+        <v>0.03875493279035877</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1624056438025644</v>
+        <v>-0.1683300488721398</v>
       </c>
       <c r="C59">
-        <v>-0.004082048713115606</v>
+        <v>-0.02227561062307203</v>
       </c>
       <c r="D59">
-        <v>0.2339779339676155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2170192935169459</v>
+      </c>
+      <c r="E59">
+        <v>0.04597292429725712</v>
+      </c>
+      <c r="F59">
+        <v>0.03550149722405784</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2465342078515148</v>
+        <v>-0.2313275270143369</v>
       </c>
       <c r="C60">
-        <v>0.009887610456032946</v>
+        <v>0.002736363884850817</v>
       </c>
       <c r="D60">
-        <v>-0.05615510183548609</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0417635317675538</v>
+      </c>
+      <c r="E60">
+        <v>-0.009253107888939439</v>
+      </c>
+      <c r="F60">
+        <v>0.005080944547903859</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.09849345064068232</v>
+        <v>-0.08024483508125063</v>
       </c>
       <c r="C61">
-        <v>-0.01424644997719276</v>
+        <v>-0.01098542855909803</v>
       </c>
       <c r="D61">
-        <v>-0.09350910629162459</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1180285966210889</v>
+      </c>
+      <c r="E61">
+        <v>-0.0396759412266668</v>
+      </c>
+      <c r="F61">
+        <v>-0.01327419832815532</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1724803301688327</v>
+        <v>-0.1695846732979314</v>
       </c>
       <c r="C62">
-        <v>-0.01419731983720919</v>
+        <v>-0.02023810720590176</v>
       </c>
       <c r="D62">
-        <v>-0.005144347730493577</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006543262924799431</v>
+      </c>
+      <c r="E62">
+        <v>-0.03377598022772189</v>
+      </c>
+      <c r="F62">
+        <v>-0.03613467645416819</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04882411138363145</v>
+        <v>-0.04590334985672644</v>
       </c>
       <c r="C63">
-        <v>-0.004720081718073582</v>
+        <v>-0.001649910138607184</v>
       </c>
       <c r="D63">
-        <v>-0.03751461961953354</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05864463567374092</v>
+      </c>
+      <c r="E63">
+        <v>-0.02297701763831929</v>
+      </c>
+      <c r="F63">
+        <v>-0.003288320554195365</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1040568201145819</v>
+        <v>-0.1102297370645892</v>
       </c>
       <c r="C64">
-        <v>-0.01145720045989405</v>
+        <v>-0.01113422221681198</v>
       </c>
       <c r="D64">
-        <v>-0.02031195466611425</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04404651510983917</v>
+      </c>
+      <c r="E64">
+        <v>-0.02202100201399798</v>
+      </c>
+      <c r="F64">
+        <v>-0.0261235659362643</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1319681097765298</v>
+        <v>-0.1498194490027395</v>
       </c>
       <c r="C65">
-        <v>-0.02882584283574493</v>
+        <v>-0.03372073727366592</v>
       </c>
       <c r="D65">
-        <v>0.02299993898664386</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04324080718050827</v>
+      </c>
+      <c r="E65">
+        <v>-0.005724156485170988</v>
+      </c>
+      <c r="F65">
+        <v>-0.03963242565473464</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1503072033819131</v>
+        <v>-0.1236571072455892</v>
       </c>
       <c r="C66">
-        <v>-0.01707800688101887</v>
+        <v>-0.01310901583495338</v>
       </c>
       <c r="D66">
-        <v>-0.1299499562309467</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1432045322755627</v>
+      </c>
+      <c r="E66">
+        <v>-0.06577047907078919</v>
+      </c>
+      <c r="F66">
+        <v>-0.03414347926660045</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05856539298641965</v>
+        <v>-0.05765654684504461</v>
       </c>
       <c r="C67">
-        <v>-0.003551639658792774</v>
+        <v>-0.002685976762528238</v>
       </c>
       <c r="D67">
-        <v>-0.04607563913430982</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05604781266560653</v>
+      </c>
+      <c r="E67">
+        <v>-0.01651890070852735</v>
+      </c>
+      <c r="F67">
+        <v>0.03146228716488509</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1027305312564011</v>
+        <v>-0.116791256906537</v>
       </c>
       <c r="C68">
-        <v>-0.01532459353106621</v>
+        <v>-0.0328455084272915</v>
       </c>
       <c r="D68">
-        <v>0.2557909092338216</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2606648832888285</v>
+      </c>
+      <c r="E68">
+        <v>0.08683981619620405</v>
+      </c>
+      <c r="F68">
+        <v>-0.004120295912928737</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.0374037159521548</v>
+        <v>-0.03936108805362284</v>
       </c>
       <c r="C69">
-        <v>-0.0002094680969494941</v>
+        <v>-0.00116776751758572</v>
       </c>
       <c r="D69">
-        <v>-0.00727251902530673</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008038536442021179</v>
+      </c>
+      <c r="E69">
+        <v>-0.02357671936493353</v>
+      </c>
+      <c r="F69">
+        <v>-0.000895455659583095</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.0561383654597997</v>
+        <v>-0.06617211556347659</v>
       </c>
       <c r="C70">
-        <v>0.02507652152373388</v>
+        <v>0.027668033788525</v>
       </c>
       <c r="D70">
-        <v>0.03351945979601628</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02412854102574127</v>
+      </c>
+      <c r="E70">
+        <v>0.03394125424545951</v>
+      </c>
+      <c r="F70">
+        <v>0.1837694463053256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1173314079199437</v>
+        <v>-0.1367340897293272</v>
       </c>
       <c r="C71">
-        <v>-0.01928381087685562</v>
+        <v>-0.037177620000104</v>
       </c>
       <c r="D71">
-        <v>0.2731845678896624</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2721296696348899</v>
+      </c>
+      <c r="E71">
+        <v>0.09727108019173289</v>
+      </c>
+      <c r="F71">
+        <v>-0.0093897184609784</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1387148212825329</v>
+        <v>-0.1426216394134187</v>
       </c>
       <c r="C72">
-        <v>-0.02239204985561773</v>
+        <v>-0.02685993888693359</v>
       </c>
       <c r="D72">
-        <v>0.002159324539409247</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.002729195334616015</v>
+      </c>
+      <c r="E72">
+        <v>-0.03648909780120042</v>
+      </c>
+      <c r="F72">
+        <v>-0.03178323375364189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2002581595017142</v>
+        <v>-0.2037630815793934</v>
       </c>
       <c r="C73">
-        <v>-0.006969664623805956</v>
+        <v>-0.01251872554988826</v>
       </c>
       <c r="D73">
-        <v>-0.005020627602840884</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0177953020799983</v>
+      </c>
+      <c r="E73">
+        <v>-0.06324282535278759</v>
+      </c>
+      <c r="F73">
+        <v>-0.03859634569272346</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09538975777066173</v>
+        <v>-0.09495650459099329</v>
       </c>
       <c r="C74">
-        <v>-0.008347366056365926</v>
+        <v>-0.01321734266076049</v>
       </c>
       <c r="D74">
-        <v>-0.02221412287859678</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01752574177419976</v>
+      </c>
+      <c r="E74">
+        <v>-0.04386726392200248</v>
+      </c>
+      <c r="F74">
+        <v>-0.05832150436497115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1399128417329485</v>
+        <v>-0.1274651682100161</v>
       </c>
       <c r="C75">
-        <v>-0.0232534903468381</v>
+        <v>-0.02793667657514822</v>
       </c>
       <c r="D75">
-        <v>-0.02886642084672659</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03092606835117442</v>
+      </c>
+      <c r="E75">
+        <v>-0.05823655656586361</v>
+      </c>
+      <c r="F75">
+        <v>-0.02269454219506941</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07311704241843842</v>
+        <v>-0.087552275664687</v>
       </c>
       <c r="C77">
-        <v>-0.01387673313830342</v>
+        <v>-0.007839577055087064</v>
       </c>
       <c r="D77">
-        <v>-0.1014557413676375</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1116611626668518</v>
+      </c>
+      <c r="E77">
+        <v>-0.0379070707562585</v>
+      </c>
+      <c r="F77">
+        <v>-0.03648155537275172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1050248745686301</v>
+        <v>-0.100026032683783</v>
       </c>
       <c r="C78">
-        <v>-0.04273525505309014</v>
+        <v>-0.03916226545210114</v>
       </c>
       <c r="D78">
-        <v>-0.09024497804066645</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1137302120771166</v>
+      </c>
+      <c r="E78">
+        <v>-0.07406131452265935</v>
+      </c>
+      <c r="F78">
+        <v>-0.04655972028241122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1703519063742817</v>
+        <v>-0.1639618853482109</v>
       </c>
       <c r="C79">
-        <v>-0.01698916758811926</v>
+        <v>-0.02268155039630058</v>
       </c>
       <c r="D79">
-        <v>-0.001685726408723876</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01465563506848267</v>
+      </c>
+      <c r="E79">
+        <v>-0.04605592868181136</v>
+      </c>
+      <c r="F79">
+        <v>-0.01199842978168906</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08981344887580822</v>
+        <v>-0.08264057591600962</v>
       </c>
       <c r="C80">
-        <v>0.0002685990740862569</v>
+        <v>0.001084817762645679</v>
       </c>
       <c r="D80">
-        <v>-0.05148345387635179</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05598461007187153</v>
+      </c>
+      <c r="E80">
+        <v>-0.03584856210531039</v>
+      </c>
+      <c r="F80">
+        <v>0.0220638481979479</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1238412109462344</v>
+        <v>-0.1195018639050427</v>
       </c>
       <c r="C81">
-        <v>-0.02659063230510983</v>
+        <v>-0.0318002137368478</v>
       </c>
       <c r="D81">
-        <v>-0.04087009402492787</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.015415985669476</v>
+      </c>
+      <c r="E81">
+        <v>-0.0570889547562944</v>
+      </c>
+      <c r="F81">
+        <v>-0.01834362553461421</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1681085347827135</v>
+        <v>-0.1657567634752246</v>
       </c>
       <c r="C82">
-        <v>-0.0172045005429676</v>
+        <v>-0.02468172784605992</v>
       </c>
       <c r="D82">
-        <v>-0.02850388402476739</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004085549529241042</v>
+      </c>
+      <c r="E82">
+        <v>-0.02620359601825124</v>
+      </c>
+      <c r="F82">
+        <v>-0.0820262249026761</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06968385418629715</v>
+        <v>-0.0583506271041813</v>
       </c>
       <c r="C83">
-        <v>-0.004698114856002554</v>
+        <v>-0.002538863493451204</v>
       </c>
       <c r="D83">
-        <v>-0.03128050728978411</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0509943081445913</v>
+      </c>
+      <c r="E83">
+        <v>-0.002892765719269463</v>
+      </c>
+      <c r="F83">
+        <v>0.0305723847197007</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06905266445900315</v>
+        <v>-0.05911139095029187</v>
       </c>
       <c r="C84">
-        <v>-0.01285223073179574</v>
+        <v>-0.01093785353279029</v>
       </c>
       <c r="D84">
-        <v>-0.05515848396894531</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06388541514393901</v>
+      </c>
+      <c r="E84">
+        <v>-0.007250991550931394</v>
+      </c>
+      <c r="F84">
+        <v>-0.00540131358310897</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1386596960015838</v>
+        <v>-0.1355397452712219</v>
       </c>
       <c r="C85">
-        <v>-0.0235578843216717</v>
+        <v>-0.02791983496600129</v>
       </c>
       <c r="D85">
-        <v>-0.01926253163446613</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009941286157950091</v>
+      </c>
+      <c r="E85">
+        <v>-0.03641545925491912</v>
+      </c>
+      <c r="F85">
+        <v>-0.04778391809707815</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.0936951394751965</v>
+        <v>-0.09507935845772186</v>
       </c>
       <c r="C86">
-        <v>0.0007380653946367719</v>
+        <v>0.00540628736828051</v>
       </c>
       <c r="D86">
-        <v>0.04305251574179944</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04092014774202174</v>
+      </c>
+      <c r="E86">
+        <v>-0.2293411871269601</v>
+      </c>
+      <c r="F86">
+        <v>0.9046461153539059</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1073394345474367</v>
+        <v>-0.09448869345145999</v>
       </c>
       <c r="C87">
-        <v>-0.02465556307227344</v>
+        <v>-0.01896604976015897</v>
       </c>
       <c r="D87">
-        <v>-0.05501383081526573</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09436960217654006</v>
+      </c>
+      <c r="E87">
+        <v>0.05314001299132581</v>
+      </c>
+      <c r="F87">
+        <v>-0.04703122332167022</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05576072232370083</v>
+        <v>-0.06085464032245987</v>
       </c>
       <c r="C88">
-        <v>-0.004577381087564497</v>
+        <v>-0.002109302135755006</v>
       </c>
       <c r="D88">
-        <v>-0.04194254511434926</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0496632753930444</v>
+      </c>
+      <c r="E88">
+        <v>-0.02408413214728286</v>
+      </c>
+      <c r="F88">
+        <v>-0.01403792116542333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.119291193154421</v>
+        <v>-0.1309603370242156</v>
       </c>
       <c r="C89">
-        <v>0.002765333708656562</v>
+        <v>-0.01374410057104553</v>
       </c>
       <c r="D89">
-        <v>0.2819451705212565</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2469270714204576</v>
+      </c>
+      <c r="E89">
+        <v>0.08895985266146295</v>
+      </c>
+      <c r="F89">
+        <v>0.009046412021245042</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1286154101848838</v>
+        <v>-0.1514947411568178</v>
       </c>
       <c r="C90">
-        <v>-0.01598540539469924</v>
+        <v>-0.03388018292840785</v>
       </c>
       <c r="D90">
-        <v>0.2743296493168929</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2703241110233605</v>
+      </c>
+      <c r="E90">
+        <v>0.1129271626744195</v>
+      </c>
+      <c r="F90">
+        <v>0.007591620315888558</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1183932520620002</v>
+        <v>-0.1208001817058026</v>
       </c>
       <c r="C91">
-        <v>-0.01315344232860242</v>
+        <v>-0.01956047924290183</v>
       </c>
       <c r="D91">
-        <v>0.009977924264746089</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01426179945432944</v>
+      </c>
+      <c r="E91">
+        <v>-0.05548094182945037</v>
+      </c>
+      <c r="F91">
+        <v>0.0005007373531422826</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.139137689917154</v>
+        <v>-0.1488102702792292</v>
       </c>
       <c r="C92">
-        <v>-0.004869393870995641</v>
+        <v>-0.0247412391542433</v>
       </c>
       <c r="D92">
-        <v>0.3052104867755613</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2911172433466244</v>
+      </c>
+      <c r="E92">
+        <v>0.1012097806312946</v>
+      </c>
+      <c r="F92">
+        <v>0.01281480810351573</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1298778766007754</v>
+        <v>-0.1521696323373991</v>
       </c>
       <c r="C93">
-        <v>-0.01146407939911766</v>
+        <v>-0.02906894084233752</v>
       </c>
       <c r="D93">
-        <v>0.2634752407055983</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2668939251497895</v>
+      </c>
+      <c r="E93">
+        <v>0.07876299025279618</v>
+      </c>
+      <c r="F93">
+        <v>-0.002738041534362193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.138092290848804</v>
+        <v>-0.128210413049663</v>
       </c>
       <c r="C94">
-        <v>-0.02003125218084114</v>
+        <v>-0.02426378537687531</v>
       </c>
       <c r="D94">
-        <v>-0.04636686394225505</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04259030727266427</v>
+      </c>
+      <c r="E94">
+        <v>-0.05729447175148025</v>
+      </c>
+      <c r="F94">
+        <v>-0.03657685923344533</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1205453224528413</v>
+        <v>-0.1264644004344735</v>
       </c>
       <c r="C95">
-        <v>-0.008426355243389312</v>
+        <v>-0.002875824397494102</v>
       </c>
       <c r="D95">
-        <v>-0.07288676532133267</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09511447543469298</v>
+      </c>
+      <c r="E95">
+        <v>-0.04933715012553569</v>
+      </c>
+      <c r="F95">
+        <v>0.005746337731008539</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.0799895629005264</v>
+        <v>-0.1076433691406983</v>
       </c>
       <c r="C96">
-        <v>0.9915150883415271</v>
+        <v>0.9872369990992341</v>
       </c>
       <c r="D96">
-        <v>0.004317549120917375</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05189273442954306</v>
+      </c>
+      <c r="E96">
+        <v>-0.0534349327437466</v>
+      </c>
+      <c r="F96">
+        <v>-0.04227871662711469</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1779499072314701</v>
+        <v>-0.1911199580677198</v>
       </c>
       <c r="C97">
-        <v>0.01224634940477784</v>
+        <v>0.007115791319944358</v>
       </c>
       <c r="D97">
-        <v>0.04709191684561161</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01953672094297117</v>
+      </c>
+      <c r="E97">
+        <v>-0.02003007759356096</v>
+      </c>
+      <c r="F97">
+        <v>0.09271687809943871</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1979267583840606</v>
+        <v>-0.2057208357927792</v>
       </c>
       <c r="C98">
-        <v>-0.003203961159126487</v>
+        <v>-0.006770654201035316</v>
       </c>
       <c r="D98">
-        <v>0.0140196623132978</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01291422189284963</v>
+      </c>
+      <c r="E98">
+        <v>0.07832998308323269</v>
+      </c>
+      <c r="F98">
+        <v>0.09434827024250601</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05244335463625914</v>
+        <v>-0.05453840137376699</v>
       </c>
       <c r="C99">
-        <v>0.003882249300260942</v>
+        <v>0.004729038856466299</v>
       </c>
       <c r="D99">
-        <v>-0.02429123825028778</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04008698182832291</v>
+      </c>
+      <c r="E99">
+        <v>-0.02258847343354013</v>
+      </c>
+      <c r="F99">
+        <v>-0.002093916810998306</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1422290643676431</v>
+        <v>-0.1267112355581603</v>
       </c>
       <c r="C100">
-        <v>0.03700032696087176</v>
+        <v>0.05425554235731525</v>
       </c>
       <c r="D100">
-        <v>-0.4386463614258044</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3465667088049101</v>
+      </c>
+      <c r="E100">
+        <v>0.8858347751309211</v>
+      </c>
+      <c r="F100">
+        <v>0.1581514336446597</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02432058361808311</v>
+        <v>-0.02860140415804302</v>
       </c>
       <c r="C101">
-        <v>-0.009784980197127901</v>
+        <v>-0.008675691210891463</v>
       </c>
       <c r="D101">
-        <v>-0.01870373435111205</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03064043839239454</v>
+      </c>
+      <c r="E101">
+        <v>-0.01327515728633146</v>
+      </c>
+      <c r="F101">
+        <v>0.01456953022830564</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
